--- a/Phân tích/UseCases/7 Đặt hàng + 8 Hoá đơn.xlsx
+++ b/Phân tích/UseCases/7 Đặt hàng + 8 Hoá đơn.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNPM\Thiết kế\Use case\Hải huy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\CNPM\Phân tích\UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818FBB5D-FD40-47F1-BEBA-DD20F4E58332}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4462A7DB-F317-43F5-A484-7DAC3CFC707C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17610" yWindow="4545" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1350" windowWidth="24810" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quản lí đặt hàng" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="78">
   <si>
     <t>Use Case Number:</t>
   </si>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t>Actor đã đăng nhập và có quyền sử dụng chức năng</t>
+  </si>
+  <si>
+    <t>3. Actor xem cửa sổ đã hiển thị. Use Case kết thúc tại đây</t>
   </si>
 </sst>
 </file>
@@ -417,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -428,13 +431,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -717,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -734,404 +740,410 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+    <row r="21" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="5" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6" t="s">
+    <row r="25" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6" t="s">
+    <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6" t="s">
+    <row r="29" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-    </row>
     <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5" t="s">
+      <c r="A31" s="7"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6" t="s">
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6" t="s">
+    <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-    </row>
     <row r="36" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5" t="s">
+      <c r="A36" s="7"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6" t="s">
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6" t="s">
+    <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="6"/>
-    </row>
-    <row r="39" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B42" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="4"/>
+      <c r="C42" s="6"/>
     </row>
     <row r="43" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="6"/>
     </row>
     <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="6"/>
     </row>
     <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="6"/>
     </row>
     <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="6"/>
     </row>
     <row r="47" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="4"/>
+      <c r="C47" s="6"/>
     </row>
     <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="6"/>
     </row>
     <row r="49" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B50" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="4"/>
+      <c r="C50" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A17:A40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A17:A39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="B49:C49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1142,7 +1154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2245BF36-93D6-4E8F-9084-C70B43C0A7D9}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B49" sqref="B49:C49"/>
     </sheetView>
   </sheetViews>
@@ -1157,311 +1169,311 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="4"/>
+      <c r="C33" s="6"/>
     </row>
     <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="6"/>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6" t="s">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
     </row>
     <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="5"/>
+      <c r="C38" s="7"/>
     </row>
     <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6" t="s">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="6"/>
+      <c r="C41" s="5"/>
     </row>
     <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6" t="s">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1469,81 +1481,81 @@
       <c r="A43" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="4"/>
+      <c r="C43" s="6"/>
     </row>
     <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="4"/>
+      <c r="C44" s="6"/>
     </row>
     <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="4"/>
+      <c r="C45" s="6"/>
     </row>
     <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="4"/>
+      <c r="C46" s="6"/>
     </row>
     <row r="47" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="4"/>
+      <c r="C47" s="6"/>
     </row>
     <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="4"/>
+      <c r="C48" s="6"/>
     </row>
     <row r="49" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="4"/>
+      <c r="C49" s="6"/>
     </row>
     <row r="50" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="4"/>
+      <c r="C50" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -1555,12 +1567,12 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Phân tích/UseCases/7 Đặt hàng + 8 Hoá đơn.xlsx
+++ b/Phân tích/UseCases/7 Đặt hàng + 8 Hoá đơn.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\CNPM\Phân tích\UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auhai\Documents\GitHub\CNPM\Phân tích\UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4462A7DB-F317-43F5-A484-7DAC3CFC707C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3722C640-6DEA-4765-90B7-170F398E5A26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1350" windowWidth="24810" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quản lí đặt hàng" sheetId="1" r:id="rId1"/>
@@ -385,12 +385,18 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -420,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -437,10 +443,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -458,6 +470,104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>213144</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D5380B-5DBE-42EB-BEA6-3C34916C8A03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15830550"/>
+          <a:ext cx="7820025" cy="9623844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>26365</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9E15EB3-99F5-4A12-846B-11C75CA93178}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15382875"/>
+          <a:ext cx="7810500" cy="9189415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -723,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -740,49 +850,49 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -793,63 +903,63 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
         <v>34</v>
@@ -857,20 +967,20 @@
     </row>
     <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="4" t="s">
         <v>10</v>
       </c>
@@ -879,39 +989,39 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="7"/>
     </row>
     <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="4" t="s">
         <v>10</v>
       </c>
@@ -920,61 +1030,61 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
+      <c r="A26" s="6"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
+      <c r="A29" s="6"/>
       <c r="B29" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
+      <c r="A30" s="6"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
     </row>
     <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7" t="s">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="6"/>
+      <c r="C32" s="7"/>
     </row>
     <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
+      <c r="A33" s="6"/>
       <c r="B33" s="5" t="s">
         <v>10</v>
       </c>
@@ -983,33 +1093,33 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
+      <c r="A34" s="6"/>
       <c r="B34" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="5"/>
     </row>
     <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
+      <c r="A35" s="6"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
     </row>
     <row r="37" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7" t="s">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="6"/>
+      <c r="C37" s="7"/>
     </row>
     <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
+      <c r="A38" s="6"/>
       <c r="B38" s="5" t="s">
         <v>10</v>
       </c>
@@ -1018,14 +1128,14 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
+      <c r="A39" s="6"/>
       <c r="B39" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="5"/>
     </row>
     <row r="40" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
+      <c r="A40" s="6"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5" t="s">
         <v>36</v>
@@ -1033,107 +1143,267 @@
     </row>
     <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
     </row>
     <row r="42" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="6"/>
+      <c r="C42" s="7"/>
     </row>
     <row r="43" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="6"/>
+      <c r="C43" s="7"/>
     </row>
     <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="6"/>
+      <c r="C44" s="7"/>
     </row>
     <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="6"/>
+      <c r="C45" s="7"/>
     </row>
     <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="6"/>
+      <c r="C46" s="7"/>
     </row>
     <row r="47" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="6"/>
+      <c r="C47" s="7"/>
     </row>
     <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="6"/>
+      <c r="C48" s="7"/>
     </row>
     <row r="49" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="6"/>
+      <c r="C49" s="7"/>
     </row>
     <row r="50" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="6"/>
+      <c r="C50" s="7"/>
+    </row>
+    <row r="51" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51"/>
+    </row>
+    <row r="52" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="9"/>
+      <c r="C52"/>
+    </row>
+    <row r="53" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="9"/>
+      <c r="C53"/>
+    </row>
+    <row r="54" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="9"/>
+      <c r="C54"/>
+    </row>
+    <row r="55" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="9"/>
+      <c r="C55"/>
+    </row>
+    <row r="56" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="9"/>
+      <c r="C56"/>
+    </row>
+    <row r="57" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="9"/>
+      <c r="C57"/>
+    </row>
+    <row r="58" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="9"/>
+      <c r="C58"/>
+    </row>
+    <row r="59" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="9"/>
+      <c r="C59"/>
+    </row>
+    <row r="60" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="9"/>
+      <c r="C60"/>
+    </row>
+    <row r="61" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="9"/>
+      <c r="C61"/>
+    </row>
+    <row r="62" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="9"/>
+      <c r="C62"/>
+    </row>
+    <row r="63" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="9"/>
+      <c r="C63"/>
+    </row>
+    <row r="64" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="9"/>
+      <c r="C64"/>
+    </row>
+    <row r="65" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="9"/>
+      <c r="C65"/>
+    </row>
+    <row r="66" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="9"/>
+      <c r="C66"/>
+    </row>
+    <row r="67" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="8"/>
+      <c r="B67" s="9"/>
+      <c r="C67"/>
+    </row>
+    <row r="68" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" s="9"/>
+      <c r="C68"/>
+    </row>
+    <row r="69" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="9"/>
+      <c r="C69"/>
+    </row>
+    <row r="70" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
+      <c r="B70" s="9"/>
+      <c r="C70"/>
+    </row>
+    <row r="71" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="9"/>
+      <c r="C71"/>
+    </row>
+    <row r="72" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="9"/>
+      <c r="C72"/>
+    </row>
+    <row r="73" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="9"/>
+      <c r="C73"/>
+    </row>
+    <row r="74" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="8"/>
+      <c r="B74" s="9"/>
+      <c r="C74"/>
+    </row>
+    <row r="75" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+      <c r="B75" s="9"/>
+      <c r="C75"/>
+    </row>
+    <row r="76" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="B76" s="9"/>
+      <c r="C76"/>
+    </row>
+    <row r="77" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="8"/>
+      <c r="B77" s="9"/>
+      <c r="C77"/>
+    </row>
+    <row r="78" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="8"/>
+      <c r="B78" s="9"/>
+      <c r="C78"/>
+    </row>
+    <row r="79" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="8"/>
+      <c r="B79" s="9"/>
+      <c r="C79"/>
+    </row>
+    <row r="80" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="8"/>
+      <c r="B80" s="9"/>
+      <c r="C80"/>
+    </row>
+    <row r="81" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="9"/>
+      <c r="C81"/>
+    </row>
+    <row r="82" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="8"/>
+      <c r="B82" s="9"/>
+      <c r="C82"/>
+    </row>
+    <row r="83" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="8"/>
+      <c r="B83" s="9"/>
+      <c r="C83"/>
+    </row>
+    <row r="84" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="8"/>
+      <c r="B84" s="9"/>
+      <c r="C84"/>
+    </row>
+    <row r="85" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="8"/>
+      <c r="B85" s="9"/>
+      <c r="C85"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
     <mergeCell ref="A17:A40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
@@ -1144,18 +1414,34 @@
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2245BF36-93D6-4E8F-9084-C70B43C0A7D9}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B49" sqref="B49:C49"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1169,49 +1455,49 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="6"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1222,77 +1508,77 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
         <v>60</v>
@@ -1300,17 +1586,17 @@
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -1337,15 +1623,15 @@
     </row>
     <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
     </row>
     <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
@@ -1400,15 +1686,15 @@
     </row>
     <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
     </row>
     <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="6"/>
+      <c r="C33" s="7"/>
     </row>
     <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
@@ -1435,17 +1721,17 @@
     </row>
     <row r="37" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
     </row>
     <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="7"/>
+      <c r="C38" s="6"/>
     </row>
     <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
@@ -1481,81 +1767,721 @@
       <c r="A43" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="6"/>
+      <c r="C43" s="7"/>
     </row>
     <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="6"/>
+      <c r="C44" s="7"/>
     </row>
     <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="6"/>
+      <c r="C45" s="7"/>
     </row>
     <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="6"/>
+      <c r="C46" s="7"/>
     </row>
     <row r="47" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="6"/>
+      <c r="C47" s="7"/>
     </row>
     <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="6"/>
+      <c r="C48" s="7"/>
     </row>
     <row r="49" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="6"/>
+      <c r="C49" s="7"/>
     </row>
     <row r="50" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="6"/>
+      <c r="C50" s="7"/>
+    </row>
+    <row r="51" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+    </row>
+    <row r="52" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+    </row>
+    <row r="53" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+    </row>
+    <row r="54" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+    </row>
+    <row r="55" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+    </row>
+    <row r="56" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+    </row>
+    <row r="57" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+    </row>
+    <row r="58" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+    </row>
+    <row r="59" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+    </row>
+    <row r="60" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+    </row>
+    <row r="61" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+    </row>
+    <row r="62" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+    </row>
+    <row r="63" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+    </row>
+    <row r="64" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+    </row>
+    <row r="65" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+    </row>
+    <row r="66" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+    </row>
+    <row r="67" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="8"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+    </row>
+    <row r="68" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+    </row>
+    <row r="69" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+    </row>
+    <row r="70" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+    </row>
+    <row r="71" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+    </row>
+    <row r="72" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+    </row>
+    <row r="73" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+    </row>
+    <row r="74" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="8"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+    </row>
+    <row r="75" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+    </row>
+    <row r="76" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+    </row>
+    <row r="77" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="8"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+    </row>
+    <row r="78" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="8"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+    </row>
+    <row r="79" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="8"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+    </row>
+    <row r="80" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="8"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+    </row>
+    <row r="81" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+    </row>
+    <row r="82" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="8"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+    </row>
+    <row r="83" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="8"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+    </row>
+    <row r="84" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="8"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+    </row>
+    <row r="85" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="8"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+    </row>
+    <row r="86" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="8"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+    </row>
+    <row r="87" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="8"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+    </row>
+    <row r="88" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+    </row>
+    <row r="89" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+    </row>
+    <row r="90" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+    </row>
+    <row r="91" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
+    </row>
+    <row r="92" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92"/>
+    </row>
+    <row r="93" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
+    </row>
+    <row r="94" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="C94"/>
+    </row>
+    <row r="95" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="C95"/>
+    </row>
+    <row r="96" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="C96"/>
+    </row>
+    <row r="97" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="C97"/>
+    </row>
+    <row r="98" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="C98"/>
+    </row>
+    <row r="99" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="C99"/>
+    </row>
+    <row r="100" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100"/>
+    </row>
+    <row r="101" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
+    </row>
+    <row r="102" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="C102"/>
+    </row>
+    <row r="103" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103"/>
+      <c r="B103"/>
+      <c r="C103"/>
+    </row>
+    <row r="104" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104"/>
+      <c r="B104"/>
+      <c r="C104"/>
+    </row>
+    <row r="105" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="C105"/>
+    </row>
+    <row r="106" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106"/>
+      <c r="B106"/>
+      <c r="C106"/>
+    </row>
+    <row r="107" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107"/>
+      <c r="B107"/>
+      <c r="C107"/>
+    </row>
+    <row r="108" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="C108"/>
+    </row>
+    <row r="109" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109"/>
+      <c r="B109"/>
+      <c r="C109"/>
+    </row>
+    <row r="110" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="C110"/>
+    </row>
+    <row r="111" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111"/>
+      <c r="B111"/>
+      <c r="C111"/>
+    </row>
+    <row r="112" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112"/>
+      <c r="B112"/>
+      <c r="C112"/>
+    </row>
+    <row r="113" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113"/>
+      <c r="B113"/>
+      <c r="C113"/>
+    </row>
+    <row r="114" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114"/>
+      <c r="B114"/>
+      <c r="C114"/>
+    </row>
+    <row r="115" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115"/>
+      <c r="B115"/>
+      <c r="C115"/>
+    </row>
+    <row r="116" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116"/>
+      <c r="B116"/>
+      <c r="C116"/>
+    </row>
+    <row r="117" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117"/>
+      <c r="B117"/>
+      <c r="C117"/>
+    </row>
+    <row r="118" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118"/>
+      <c r="B118"/>
+      <c r="C118"/>
+    </row>
+    <row r="119" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119"/>
+      <c r="B119"/>
+      <c r="C119"/>
+    </row>
+    <row r="120" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120"/>
+      <c r="B120"/>
+      <c r="C120"/>
+    </row>
+    <row r="121" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121"/>
+      <c r="B121"/>
+      <c r="C121"/>
+    </row>
+    <row r="122" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122"/>
+      <c r="B122"/>
+      <c r="C122"/>
+    </row>
+    <row r="123" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123"/>
+      <c r="B123"/>
+      <c r="C123"/>
+    </row>
+    <row r="124" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124"/>
+      <c r="B124"/>
+      <c r="C124"/>
+    </row>
+    <row r="125" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125"/>
+      <c r="B125"/>
+      <c r="C125"/>
+    </row>
+    <row r="126" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126"/>
+      <c r="B126"/>
+      <c r="C126"/>
+    </row>
+    <row r="127" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127"/>
+      <c r="B127"/>
+      <c r="C127"/>
+    </row>
+    <row r="128" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128"/>
+      <c r="B128"/>
+      <c r="C128"/>
+    </row>
+    <row r="129" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129"/>
+      <c r="B129"/>
+      <c r="C129"/>
+    </row>
+    <row r="130" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130"/>
+      <c r="B130"/>
+      <c r="C130"/>
+    </row>
+    <row r="131" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131"/>
+      <c r="B131"/>
+      <c r="C131"/>
+    </row>
+    <row r="132" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132"/>
+      <c r="B132"/>
+      <c r="C132"/>
+    </row>
+    <row r="133" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133"/>
+      <c r="B133"/>
+      <c r="C133"/>
+    </row>
+    <row r="134" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134"/>
+      <c r="B134"/>
+      <c r="C134"/>
+    </row>
+    <row r="135" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135"/>
+      <c r="B135"/>
+      <c r="C135"/>
+    </row>
+    <row r="136" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136"/>
+      <c r="B136"/>
+      <c r="C136"/>
+    </row>
+    <row r="137" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137"/>
+      <c r="B137"/>
+      <c r="C137"/>
+    </row>
+    <row r="138" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138"/>
+      <c r="B138"/>
+      <c r="C138"/>
+    </row>
+    <row r="139" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139"/>
+      <c r="B139"/>
+      <c r="C139"/>
+    </row>
+    <row r="140" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140"/>
+      <c r="B140"/>
+      <c r="C140"/>
+    </row>
+    <row r="141" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141"/>
+      <c r="B141"/>
+      <c r="C141"/>
+    </row>
+    <row r="142" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142"/>
+      <c r="B142"/>
+      <c r="C142"/>
+    </row>
+    <row r="143" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143"/>
+      <c r="B143"/>
+      <c r="C143"/>
+    </row>
+    <row r="144" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144"/>
+      <c r="B144"/>
+      <c r="C144"/>
+    </row>
+    <row r="145" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145"/>
+      <c r="B145"/>
+      <c r="C145"/>
+    </row>
+    <row r="146" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146"/>
+      <c r="B146"/>
+      <c r="C146"/>
+    </row>
+    <row r="147" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147"/>
+      <c r="B147"/>
+      <c r="C147"/>
+    </row>
+    <row r="148" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148"/>
+      <c r="B148"/>
+      <c r="C148"/>
+    </row>
+    <row r="149" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149"/>
+      <c r="B149"/>
+      <c r="C149"/>
+    </row>
+    <row r="150" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150"/>
+      <c r="B150"/>
+      <c r="C150"/>
+    </row>
+    <row r="151" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151"/>
+      <c r="B151"/>
+      <c r="C151"/>
+    </row>
+    <row r="152" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152"/>
+      <c r="B152"/>
+      <c r="C152"/>
+    </row>
+    <row r="153" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153"/>
+      <c r="B153"/>
+      <c r="C153"/>
+    </row>
+    <row r="154" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154"/>
+      <c r="B154"/>
+      <c r="C154"/>
+    </row>
+    <row r="155" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155"/>
+      <c r="B155"/>
+      <c r="C155"/>
+    </row>
+    <row r="156" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156"/>
+      <c r="B156"/>
+      <c r="C156"/>
+    </row>
+    <row r="157" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157"/>
+      <c r="B157"/>
+      <c r="C157"/>
+    </row>
+    <row r="158" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158"/>
+      <c r="B158"/>
+      <c r="C158"/>
+    </row>
+    <row r="159" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159"/>
+      <c r="B159"/>
+      <c r="C159"/>
+    </row>
+    <row r="160" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160"/>
+      <c r="B160"/>
+      <c r="C160"/>
+    </row>
+    <row r="161" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161"/>
+      <c r="B161"/>
+      <c r="C161"/>
+    </row>
+    <row r="162" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162"/>
+      <c r="B162"/>
+      <c r="C162"/>
+    </row>
+    <row r="163" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163"/>
+      <c r="B163"/>
+      <c r="C163"/>
+    </row>
+    <row r="164" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164"/>
+      <c r="B164"/>
+      <c r="C164"/>
+    </row>
+    <row r="165" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165"/>
+      <c r="B165"/>
+      <c r="C165"/>
+    </row>
+    <row r="166" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166"/>
+      <c r="B166"/>
+      <c r="C166"/>
+    </row>
+    <row r="167" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167"/>
+      <c r="B167"/>
+      <c r="C167"/>
+    </row>
+    <row r="168" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168"/>
+      <c r="B168"/>
+      <c r="C168"/>
+    </row>
+    <row r="169" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169"/>
+      <c r="B169"/>
+      <c r="C169"/>
+    </row>
+    <row r="170" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170"/>
+      <c r="B170"/>
+      <c r="C170"/>
+    </row>
+    <row r="171" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171"/>
+      <c r="B171"/>
+      <c r="C171"/>
+    </row>
+    <row r="172" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172"/>
+      <c r="B172"/>
+      <c r="C172"/>
+    </row>
+    <row r="173" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173"/>
+      <c r="B173"/>
+      <c r="C173"/>
+    </row>
+    <row r="174" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174"/>
+      <c r="B174"/>
+      <c r="C174"/>
+    </row>
+    <row r="175" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175"/>
+      <c r="B175"/>
+      <c r="C175"/>
+    </row>
+    <row r="176" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176"/>
+      <c r="B176"/>
+      <c r="C176"/>
+    </row>
+    <row r="177" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177"/>
+      <c r="B177"/>
+      <c r="C177"/>
+    </row>
+    <row r="178" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178"/>
+      <c r="B178"/>
+      <c r="C178"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -1568,12 +2494,13 @@
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>